--- a/data/outputs/OR_altmetric/39.xlsx
+++ b/data/outputs/OR_altmetric/39.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE48"/>
+  <dimension ref="A1:CF48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1025,6 +1030,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1282,6 +1290,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1535,6 +1546,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1784,6 +1798,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2033,6 +2050,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2282,6 +2302,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2531,6 +2554,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2778,6 +2804,9 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3021,6 +3050,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3270,6 +3302,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3521,6 +3556,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3764,6 +3802,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4021,6 +4062,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4270,6 +4314,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4519,6 +4566,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4772,6 +4822,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5025,6 +5078,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5274,6 +5330,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5531,6 +5590,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5780,6 +5842,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6029,6 +6094,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6286,6 +6354,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6543,6 +6614,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6792,6 +6866,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7039,6 +7116,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7288,6 +7368,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7537,6 +7620,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7782,6 +7868,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8031,6 +8120,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8286,6 +8378,9 @@
         <v>0</v>
       </c>
       <c r="CE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8529,6 +8624,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8770,6 +8868,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9015,6 +9116,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9264,6 +9368,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9513,6 +9620,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9756,6 +9866,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9999,6 +10112,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10244,6 +10360,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10491,6 +10610,9 @@
         <v>0</v>
       </c>
       <c r="CE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10734,6 +10856,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10983,6 +11108,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11236,6 +11364,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11485,6 +11616,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11744,6 +11878,9 @@
         <v>0</v>
       </c>
       <c r="CE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11971,6 +12108,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12216,6 +12356,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12465,6 +12608,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
